--- a/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>ROCC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,41 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,8 +709,14 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -737,8 +744,14 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -766,8 +779,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -795,8 +814,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -808,8 +833,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -837,8 +864,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -866,8 +899,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -895,8 +934,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -924,8 +969,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -934,25 +985,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -963,8 +1016,14 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -972,16 +1031,16 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -992,8 +1051,14 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1005,8 +1070,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1019,11 +1086,11 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1034,8 +1101,14 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1063,8 +1136,14 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1092,25 +1171,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1121,8 +1206,14 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1241,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1179,25 +1276,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1208,25 +1311,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1237,8 +1346,14 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1266,8 +1381,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1295,8 +1416,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1324,8 +1451,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1353,8 +1486,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1367,11 +1506,11 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1382,25 +1521,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1411,8 +1556,14 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1440,25 +1591,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1469,31 +1626,37 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1503,8 +1666,14 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,8 +1685,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1529,20 +1700,22 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,8 +1731,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1587,8 +1766,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1616,8 +1801,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1645,49 +1836,61 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1703,37 +1906,49 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>115000</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>115000</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +1976,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1790,8 +2011,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1819,8 +2046,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1848,20 +2081,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,8 +2116,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1906,20 +2151,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>116100</v>
+      </c>
+      <c r="F54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1935,8 +2186,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1948,8 +2205,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1961,8 +2220,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1990,20 +2251,26 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,19 +2286,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2048,20 +2321,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2077,8 +2356,14 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2106,8 +2391,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2135,8 +2426,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2164,8 +2461,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2193,8 +2496,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2222,20 +2531,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2251,8 +2566,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2264,8 +2585,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2293,8 +2616,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2322,8 +2651,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2351,8 +2686,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2380,19 +2721,25 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2409,8 +2756,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2438,8 +2791,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2467,8 +2826,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2496,19 +2861,25 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>116000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2525,8 +2896,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2554,31 +2931,37 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2588,25 +2971,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2617,8 +3006,14 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2630,8 +3025,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2659,8 +3056,14 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2688,8 +3091,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2717,8 +3126,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2746,8 +3161,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2775,8 +3196,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2804,25 +3231,31 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -2833,8 +3266,14 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2846,8 +3285,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2875,8 +3316,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2904,8 +3351,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2933,8 +3386,14 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2962,8 +3421,14 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,8 +3440,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3004,8 +3471,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3033,8 +3506,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3062,8 +3541,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3091,25 +3576,31 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
+        <v>115900</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3120,8 +3611,14 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3149,25 +3646,31 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>500</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3176,6 +3679,12 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>ROCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,46 +665,50 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
-        <v>43830</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43738</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+      <c r="I7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J7" s="2">
+        <v>43921</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -715,31 +719,37 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>141100</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>124700</v>
       </c>
       <c r="F8" s="3">
-        <v>0</v>
+        <v>88600</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>67000</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>69400</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>45500</v>
       </c>
       <c r="J8" s="3">
-        <v>0</v>
+        <v>91400</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -750,31 +760,37 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>21600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>17300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>22100</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -785,31 +801,37 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>117200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>103100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>69600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>48700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>51000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>28200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>69300</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -820,8 +842,14 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,8 +863,10 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -870,8 +900,14 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -905,28 +941,34 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>124900</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>237900</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>35500</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -940,31 +982,37 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>25800</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>40700</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -975,8 +1023,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -987,31 +1041,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>65800</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>57400</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>59100</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>174400</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>300000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>97900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>70100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1022,31 +1078,37 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>75300</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>67300</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>29500</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-107400</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>-230600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>21300</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1057,8 +1119,14 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1072,31 +1140,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-21100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-54200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-44400</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-22300</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>-6900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>151100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1107,31 +1177,37 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>41900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-103900</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>213100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1142,31 +1218,37 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>10600</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>8500</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>8200</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1177,31 +1259,37 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>43600</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>7800</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-20300</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-136700</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>-245000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-95400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>164200</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1212,31 +1300,37 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1247,8 +1341,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,31 +1382,37 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>43100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>7600</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-135500</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>-243400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>163100</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1317,31 +1423,37 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>17400</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-13600</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-135500</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>-243400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>163100</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1352,8 +1464,14 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1387,8 +1505,14 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1422,8 +1546,14 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1457,8 +1587,14 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1492,31 +1628,37 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>21100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>54200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>44400</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>22300</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>6900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>34400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-151100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1527,31 +1669,37 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>17400</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>3000</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-13600</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-135500</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>-243400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>163100</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1562,8 +1710,14 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1597,31 +1751,37 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>17400</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>3000</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-13600</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-135500</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>-243400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>163100</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1632,36 +1792,42 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
-        <v>43830</v>
-      </c>
-      <c r="H38" s="2">
-        <v>43738</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+      <c r="I38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J38" s="2">
+        <v>43921</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1672,8 +1838,14 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1687,8 +1859,10 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,31 +1876,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>35300</v>
       </c>
       <c r="E41" s="3">
-        <v>700</v>
+        <v>49700</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+        <v>11900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I41" s="3">
+        <v>21900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>55300</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1737,8 +1913,14 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1772,31 +1954,37 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>87800</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>79600</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>66400</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>42600</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>42800</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1807,31 +1995,37 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>6400</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1842,66 +2036,78 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>22900</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+        <v>11800</v>
+      </c>
+      <c r="F45" s="3">
+        <v>28600</v>
+      </c>
+      <c r="G45" s="3">
+        <v>94000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>56800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>118500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>900</v>
+        <v>151900</v>
       </c>
       <c r="E46" s="3">
-        <v>1100</v>
+        <v>148100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+        <v>110900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>153400</v>
+      </c>
+      <c r="H46" s="3">
+        <v>109800</v>
+      </c>
+      <c r="I46" s="3">
+        <v>186300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>330700</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1912,66 +2118,78 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>115000</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>866800</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>835800</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>794300</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>726000</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>838100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>1102600</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>1163500</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -1982,8 +2200,14 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2017,8 +2241,14 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2052,8 +2282,14 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2087,31 +2323,37 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>400600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6000</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>7900</v>
+      </c>
+      <c r="G52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I52" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J52" s="3">
+        <v>14800</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2122,8 +2364,14 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,31 +2405,37 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>115900</v>
+        <v>1419300</v>
       </c>
       <c r="E54" s="3">
-        <v>116100</v>
+        <v>989900</v>
       </c>
       <c r="F54" s="3">
-        <v>300</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+        <v>913100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>907300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>953200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1295700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1508900</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2192,8 +2446,14 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2207,8 +2467,10 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2222,31 +2484,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>36300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>31600</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>30100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>11300</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>12300</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>46000</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2257,19 +2521,25 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7500</v>
       </c>
       <c r="F58" s="3">
-        <v>200</v>
+        <v>7500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2292,31 +2562,37 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>179100</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>165900</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+        <v>114100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>136900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>66300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>118200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>162900</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2327,31 +2603,37 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>222900</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>205000</v>
       </c>
       <c r="F60" s="3">
-        <v>200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+        <v>151800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>148200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>71200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>130500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>209000</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2362,31 +2644,37 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>739300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>372000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>363600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>509500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>518900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>553200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>592600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2397,31 +2685,37 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>30500</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>30200</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>23600</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>36800</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>15400</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>21400</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>23000</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2432,8 +2726,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2467,8 +2767,14 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2502,8 +2808,14 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2537,31 +2849,37 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>300</v>
+        <v>1246100</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>834900</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+        <v>762200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>694500</v>
+      </c>
+      <c r="H66" s="3">
+        <v>605400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>705200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>824600</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2572,8 +2890,14 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2587,8 +2911,10 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2622,8 +2948,14 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2657,8 +2989,14 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2692,8 +3030,14 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2727,31 +3071,37 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-400</v>
+        <v>16200</v>
       </c>
       <c r="E72" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+        <v>-4200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H72" s="3">
+        <v>144900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>388300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>483000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2762,8 +3112,14 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2797,8 +3153,14 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2832,8 +3194,14 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2867,31 +3235,37 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5000</v>
+        <v>173200</v>
       </c>
       <c r="E76" s="3">
-        <v>116000</v>
+        <v>154900</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+        <v>151000</v>
+      </c>
+      <c r="G76" s="3">
+        <v>212800</v>
+      </c>
+      <c r="H76" s="3">
+        <v>347700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>590500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>684300</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2902,8 +3276,14 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2937,36 +3317,42 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
-        <v>43830</v>
-      </c>
-      <c r="H80" s="2">
-        <v>43738</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+      <c r="I80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="J80" s="2">
+        <v>43921</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2977,31 +3363,37 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>17400</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>3000</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-13600</v>
       </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-135500</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>-243400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-94700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>163100</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3012,8 +3404,14 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3027,31 +3425,33 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>31000</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>23900</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>25800</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>37000</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>37100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>40700</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3062,8 +3462,14 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3097,8 +3503,14 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3132,8 +3544,14 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3167,8 +3585,14 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3202,8 +3626,14 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3237,31 +3667,37 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>81400</v>
       </c>
       <c r="E89" s="3">
-        <v>-400</v>
+        <v>90500</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>32200</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>32100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>60800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>56400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>72500</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -3272,8 +3708,14 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3287,31 +3729,33 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-50900</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-60900</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-34800</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-29600</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-26200</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-50800</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-62000</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3322,8 +3766,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3357,8 +3807,14 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3392,31 +3848,37 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-50900</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-60800</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-34800</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-29600</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-26200</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-50800</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-61900</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3427,8 +3889,14 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3442,8 +3910,10 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3477,8 +3947,14 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3512,8 +3988,14 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3547,8 +4029,14 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3582,31 +4070,37 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>366600</v>
       </c>
       <c r="E100" s="3">
-        <v>115900</v>
+        <v>8100</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>-36100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>37000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3617,8 +4111,14 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3652,31 +4152,37 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>397100</v>
       </c>
       <c r="E102" s="3">
-        <v>500</v>
+        <v>37800</v>
       </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>-1200</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-7500</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>-1400</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-33400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>47500</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
@@ -3685,6 +4191,12 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
   <si>
     <t>ROCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,54 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,35 +725,38 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>225200</v>
+      </c>
+      <c r="E8" s="3">
         <v>141100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>124700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>88600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>67000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>69400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>45500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>91400</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -766,35 +769,38 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E9" s="3">
         <v>23900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>21600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>18400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>17300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>22100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -807,35 +813,38 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>189600</v>
+      </c>
+      <c r="E10" s="3">
         <v>117200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>103100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>69600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>48700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>51000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>28200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>69300</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -848,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +877,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,32 +963,35 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2700</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>7900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>124900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>237900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
@@ -988,35 +1007,38 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E15" s="3">
         <v>31000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>28800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>23900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>25800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>37000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>37100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>40700</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1029,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,35 +1068,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E17" s="3">
         <v>65800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>59100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>174400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>97900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,35 +1110,38 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E18" s="3">
         <v>75300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>67300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>29500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-107400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-230600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-52400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,35 +1174,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-21100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-54200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-44400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-22300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-34400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>151100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,35 +1216,38 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>129300</v>
+      </c>
+      <c r="E21" s="3">
         <v>85200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-103900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-49700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>213100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,35 +1260,38 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E22" s="3">
         <v>10600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8200</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1265,35 +1304,38 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>69400</v>
+      </c>
+      <c r="E23" s="3">
         <v>43600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-136700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-245000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-95400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>164200</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1306,35 +1348,38 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1347,8 +1392,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,35 +1436,38 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>68300</v>
+      </c>
+      <c r="E26" s="3">
         <v>43100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-135500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-243400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-94700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>163100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,35 +1480,38 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E27" s="3">
         <v>17400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-13600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-135500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-243400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-94700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>163100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1470,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,35 +1700,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E32" s="3">
         <v>21100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>54200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>44400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>22300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>34400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-151100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,35 +1744,38 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E33" s="3">
         <v>17400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-13600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-135500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-243400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-94700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>163100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1716,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,35 +1832,38 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E35" s="3">
         <v>17400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-13600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-135500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-243400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-94700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>163100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,40 +1876,43 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,35 +1963,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E41" s="3">
         <v>35300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>49700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>20500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>55300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2005,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,35 +2049,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E43" s="3">
         <v>87800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>79600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>66400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>26000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2001,34 +2093,37 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E44" s="3">
         <v>6000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3000</v>
       </c>
       <c r="J44" s="3">
         <v>3000</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2042,40 +2137,43 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>33600</v>
+      </c>
+      <c r="E45" s="3">
         <v>22900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>94000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>56800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>118500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>235200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2083,35 +2181,38 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>186200</v>
+      </c>
+      <c r="E46" s="3">
         <v>151900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>148100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>110900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>153400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>109800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>186300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>330700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2150,14 +2254,14 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2165,35 +2269,38 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1385000</v>
+      </c>
+      <c r="E48" s="3">
         <v>866800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>835800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>794300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>726000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>838100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1102600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1163500</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
@@ -2206,8 +2313,11 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,35 +2445,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E52" s="3">
         <v>400600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>7900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>27900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>5300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,35 +2533,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1576600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1419300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>989900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>913100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>907300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>953200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1295700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1508900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,35 +2615,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E57" s="3">
         <v>36300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>31600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>46000</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
         <v>0</v>
       </c>
@@ -2527,13 +2657,16 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7500</v>
+        <v>4100</v>
       </c>
       <c r="E58" s="3">
         <v>7500</v>
@@ -2541,8 +2674,8 @@
       <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>7500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2568,35 +2701,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>227400</v>
+      </c>
+      <c r="E59" s="3">
         <v>179100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>165900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>136900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>66300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>162900</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2609,35 +2745,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>268900</v>
+      </c>
+      <c r="E60" s="3">
         <v>222900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>205000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>151800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>148200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>71200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>130500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>209000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,35 +2789,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>601300</v>
+      </c>
+      <c r="E61" s="3">
         <v>739300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>372000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>363600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>509500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>518900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>553200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>592600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2691,35 +2833,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E62" s="3">
         <v>30500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>30200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>23600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>21400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23000</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -2732,8 +2877,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,35 +3009,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1253100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1246100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>834900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>762200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>694500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>605400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>705200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>824600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,35 +3247,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E72" s="3">
         <v>16200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>144900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>388300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>483000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,35 +3423,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>323500</v>
+      </c>
+      <c r="E76" s="3">
         <v>173200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>154900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>151000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>212800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>347700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>590500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>684300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,40 +3511,43 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,35 +3560,38 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E81" s="3">
         <v>17400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-13600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-135500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-243400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-94700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>163100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3410,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,35 +3624,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E83" s="3">
         <v>31000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>28800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>23900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>37000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>40700</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -3468,8 +3666,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,35 +3886,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E89" s="3">
         <v>81400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>90500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>32200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>32100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>60800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>56400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>72500</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +3930,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,35 +3950,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-50900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-60900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-34800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-29600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-26200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-62000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -3772,8 +3992,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,35 +4080,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-98700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-50900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-60800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-34800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-50800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-61900</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -3895,8 +4124,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,35 +4318,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-409300</v>
+      </c>
+      <c r="E100" s="3">
         <v>366600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-36100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-39000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>37000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4362,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,35 +4406,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-423100</v>
+      </c>
+      <c r="E102" s="3">
         <v>397100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>37800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>47500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4448,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>ROCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,60 +665,62 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,41 +730,47 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>314500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>256500</v>
+      </c>
+      <c r="F8" s="3">
         <v>225200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>141100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>124700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>88600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>67000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>69400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>45500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>91400</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -772,41 +780,47 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F9" s="3">
         <v>35600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>23900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>21600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>19000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>18300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>18400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>17300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>22100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,41 +830,47 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>270200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>216200</v>
+      </c>
+      <c r="F10" s="3">
         <v>189600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>117200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>103100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>69600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>48700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>51000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>28200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>69300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -860,8 +880,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,8 +904,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,8 +950,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,38 +1000,44 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F14" s="3">
         <v>24200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>2700</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>7900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>124900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>237900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>35500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1010,41 +1050,47 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F15" s="3">
         <v>48000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>31000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>28800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>23900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>25800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>37000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>37100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>40700</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1054,8 +1100,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,41 +1121,43 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>98800</v>
+      </c>
+      <c r="F17" s="3">
         <v>126700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>65800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>57400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>59100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>174400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>97900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>70100</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,41 +1167,47 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>205300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>157700</v>
+      </c>
+      <c r="F18" s="3">
         <v>98500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>75300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>67300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>29500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-107400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-230600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-52400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>21300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1217,14 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,41 +1241,43 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-167900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-17200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-21100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-54200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-44400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-22300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-34400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>151100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,41 +1287,47 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>214700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>40700</v>
+      </c>
+      <c r="F21" s="3">
         <v>129300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>85200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>41900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>9000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-103900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-49700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>213100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,41 +1337,47 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10700</v>
+      </c>
+      <c r="F22" s="3">
         <v>11900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>10600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>5400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>7000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>7500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>8200</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1307,41 +1387,47 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F23" s="3">
         <v>69400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>43600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>7800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-136700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-245000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-95400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>164200</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,41 +1437,47 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1395,8 +1487,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,41 +1537,47 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F26" s="3">
         <v>68300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>43100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>7600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-135500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-243400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-94700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>163100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,41 +1587,47 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F27" s="3">
         <v>33400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>17400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-13600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-135500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-243400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-94700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>163100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1637,14 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1687,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1737,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1787,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,41 +1837,47 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>167900</v>
+      </c>
+      <c r="F32" s="3">
         <v>17200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>21100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>54200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>44400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>22300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>34400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-151100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,41 +1887,47 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F33" s="3">
         <v>33400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>17400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-13600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-135500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-243400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-94700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>163100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1937,14 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,41 +1987,47 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F35" s="3">
         <v>33400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>17400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-13600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-135500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-243400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-94700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>163100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,46 +2037,52 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2092,14 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2116,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,41 +2136,43 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>23700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>35300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>49700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>11900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>13000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>20500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>21900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>55300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,8 +2182,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2052,41 +2232,47 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>154200</v>
+      </c>
+      <c r="F43" s="3">
         <v>118600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>87800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>79600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>66400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>42600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>26000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>42800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>37100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2096,41 +2282,47 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E44" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F44" s="3">
         <v>10300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>7000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>6400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3000</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
@@ -2140,85 +2332,97 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F45" s="3">
         <v>33600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>11800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>28600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>94000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>56800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>118500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>235200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>275700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>197600</v>
+      </c>
+      <c r="F46" s="3">
         <v>186200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>151900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>148100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>110900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>153400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>109800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>186300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>330700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2432,14 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2257,56 +2467,62 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1535800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1419200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1385000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>866800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>835800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>794300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>726000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>838100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1102600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1163500</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -2316,8 +2532,14 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2582,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2632,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,41 +2682,47 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>7900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>27900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>14800</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2492,8 +2732,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,41 +2782,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1826500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1622800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1576600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1419300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>989900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>913100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>907300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>953200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1295700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1508900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2832,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2856,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,41 +2876,43 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>35100</v>
+      </c>
+      <c r="F57" s="3">
         <v>37300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>36300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>31600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>30100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>11300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>12300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>46000</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -2660,28 +2922,34 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F58" s="3">
         <v>4100</v>
-      </c>
-      <c r="E58" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>7500</v>
       </c>
       <c r="G58" s="3">
         <v>7500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>7500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2704,41 +2972,47 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>407600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>360100</v>
+      </c>
+      <c r="F59" s="3">
         <v>227400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>179100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>165900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>114100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>136900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>66300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>118200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>162900</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,41 +3022,47 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>445700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>397100</v>
+      </c>
+      <c r="F60" s="3">
         <v>268900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>222900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>205000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>151800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>148200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>71200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>130500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>209000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,41 +3072,47 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>565300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>521800</v>
+      </c>
+      <c r="F61" s="3">
         <v>601300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>739300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>372000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>363600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>509500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>518900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>553200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>592600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2836,41 +3122,47 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F62" s="3">
         <v>37000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>30500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>30200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>23600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>36800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>15400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>21400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23000</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -2880,8 +3172,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3222,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3272,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,41 +3322,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1308800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1253100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1246100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>834900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>762200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>694500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>605400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>705200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>824600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3372,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3396,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3442,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3492,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3542,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,41 +3592,47 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>39600</v>
+      </c>
+      <c r="F72" s="3">
         <v>49600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>16200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>9400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>144900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>388300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>483000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3642,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3692,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3742,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,41 +3792,47 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>368500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>314000</v>
+      </c>
+      <c r="F76" s="3">
         <v>323500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>173200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>154900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>151000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>212800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>347700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>590500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>684300</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3842,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,46 +3892,52 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,41 +3947,47 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F81" s="3">
         <v>33400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>17400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-13600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-135500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-243400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-94700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>163100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3997,14 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,41 +4021,43 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F83" s="3">
         <v>48000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>31000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>28800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>23900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>25800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>37000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>37100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>40700</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -3669,8 +4067,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +4117,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +4167,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4217,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4267,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,41 +4317,47 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>133800</v>
+      </c>
+      <c r="F89" s="3">
         <v>84900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>81400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>90500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>32200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>32100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>60800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>56400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>72500</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3933,8 +4367,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,41 +4391,43 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-109700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-50900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-60900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-34800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-29600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-26200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-50800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-62000</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -3995,8 +4437,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4487,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,41 +4537,47 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-98700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-50900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-60800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-34800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-29600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-26200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-50800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-61900</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -4127,8 +4587,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4611,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4657,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4707,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4757,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,41 +4807,47 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-80600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-409300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>366600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>8100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-36100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-39000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>37000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4365,8 +4857,14 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4409,41 +4907,47 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-423100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>397100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>37800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-33400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>47500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4451,6 +4955,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>ROCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,44 +737,47 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>305100</v>
+      </c>
+      <c r="E8" s="3">
         <v>314500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>256500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>225200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>141100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>124700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>88600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>67000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>69400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>45500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>91400</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -786,44 +790,47 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E9" s="3">
         <v>44300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>40300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>35600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>21600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>19000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>18300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>17300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>22100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,44 +843,47 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>254500</v>
+      </c>
+      <c r="E10" s="3">
         <v>270200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>216200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>189600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>117200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>103100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>69600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>48700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>28200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>69300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,41 +1023,44 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>500</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>24200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2700</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>7900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>124900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>237900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>35500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1056,44 +1076,47 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E15" s="3">
         <v>54300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>50900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>48000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>31000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>28800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>23900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>25800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>37000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>37100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40700</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,44 +1149,45 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>126600</v>
+      </c>
+      <c r="E17" s="3">
         <v>109200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>98800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>126700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>65800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>57400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>59100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>174400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>97900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,44 +1200,47 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E18" s="3">
         <v>205300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>157700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>98500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>75300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>67300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>29500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-107400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-230600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-52400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,44 +1276,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-44900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-167900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-17200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-21100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-54200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-44400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-22300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>151100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,44 +1327,47 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E21" s="3">
         <v>214700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>129300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>85200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-103900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-200400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-49700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>213100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,44 +1380,47 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E22" s="3">
         <v>11000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>11900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>10600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>7500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1393,44 +1433,47 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>229600</v>
+      </c>
+      <c r="E23" s="3">
         <v>149300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>69400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>43600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-136700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-245000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-95400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>164200</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,44 +1486,47 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,44 +1592,47 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E26" s="3">
         <v>148000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>68300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>43100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-135500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-243400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-94700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>163100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,44 +1645,47 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E27" s="3">
         <v>71200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>17400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-13600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-135500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-243400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-94700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>163100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,44 +1910,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E32" s="3">
         <v>44900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>167900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>17200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>21100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>54200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>44400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>22300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-151100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,44 +1963,47 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E33" s="3">
         <v>71200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>17400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-13600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-135500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-243400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-94700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>163100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,44 +2069,47 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E35" s="3">
         <v>71200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>17400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-13600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-135500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-243400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-94700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>163100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,44 +2224,45 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E41" s="3">
         <v>34500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>23700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>35300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>49700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>13000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>20500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,44 +2328,47 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>147800</v>
+      </c>
+      <c r="E43" s="3">
         <v>201400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>154200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>118600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>87800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>79600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>66400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>42600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>26000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>42800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2288,43 +2381,46 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E44" s="3">
         <v>11100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>10300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>7000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>6400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3000</v>
       </c>
       <c r="M44" s="3">
         <v>3000</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2338,49 +2434,52 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>34500</v>
+      </c>
+      <c r="E45" s="3">
         <v>28800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>33600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>94000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>56800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>118500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>235200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2388,44 +2487,47 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>213100</v>
+      </c>
+      <c r="E46" s="3">
         <v>275700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>197600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>186200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>151900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>148100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>110900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>153400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>109800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>186300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>330700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2473,14 +2578,14 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2488,44 +2593,47 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1712500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1535800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1419200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1385000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>866800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>835800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>794300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>726000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>838100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1102600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1163500</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,44 +2805,47 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E52" s="3">
         <v>15100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>27900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,44 +2911,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1935400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1826500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1622800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1576600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1419300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>989900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>913100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>907300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>953200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1295700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1508900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,44 +3008,45 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E57" s="3">
         <v>36200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>35100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>12300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>46000</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -2928,22 +3059,25 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1900</v>
       </c>
       <c r="F58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G58" s="3">
         <v>4100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>7500</v>
       </c>
       <c r="H58" s="3">
         <v>7500</v>
@@ -2951,8 +3085,8 @@
       <c r="I58" s="3">
         <v>7500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>7500</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2978,44 +3112,47 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>303900</v>
+      </c>
+      <c r="E59" s="3">
         <v>407600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>360100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>227400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>179100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>165900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>114100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>136900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>66300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>118200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>162900</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,44 +3165,47 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>339700</v>
+      </c>
+      <c r="E60" s="3">
         <v>445700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>397100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>268900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>222900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>205000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>151800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>148200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>71200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>130500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>209000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,44 +3218,47 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>603500</v>
+      </c>
+      <c r="E61" s="3">
         <v>565300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>521800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>601300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>739300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>372000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>363600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>509500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>518900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>553200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>592600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3128,44 +3271,47 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E62" s="3">
         <v>41400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>37000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>23600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>21400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23000</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,44 +3483,47 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1489000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1458000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1308800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1253100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1246100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>834900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>762200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>694500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>605400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>705200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>824600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,44 +3769,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>215500</v>
+      </c>
+      <c r="E72" s="3">
         <v>110800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>39600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>144900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>388300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>483000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,44 +3981,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>446300</v>
+      </c>
+      <c r="E76" s="3">
         <v>368500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>314000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>323500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>173200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>154900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>151000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>212800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>347700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>590500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>684300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,44 +4145,47 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E81" s="3">
         <v>71200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>17400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-13600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-135500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-243400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-94700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>163100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,44 +4221,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66200</v>
+      </c>
+      <c r="E83" s="3">
         <v>54300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>50900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>48000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>23900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>37100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>40700</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,44 +4537,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>190300</v>
+      </c>
+      <c r="E89" s="3">
         <v>165000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>133800</v>
       </c>
-      <c r="F89" s="3">
-        <v>84900</v>
-      </c>
       <c r="G89" s="3">
-        <v>81400</v>
+        <v>84300</v>
       </c>
       <c r="H89" s="3">
+        <v>81500</v>
+      </c>
+      <c r="I89" s="3">
         <v>90500</v>
       </c>
-      <c r="I89" s="3">
-        <v>32200</v>
-      </c>
       <c r="J89" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K89" s="3">
         <v>32100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>60800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>56400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>72500</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,44 +4613,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-123400</v>
+      </c>
+      <c r="E91" s="3">
         <v>64800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-71200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-109700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-50900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-34800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-50800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62000</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,44 +4770,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-155500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-70500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-98700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-50900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-60800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-34800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-29600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-50800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-61900</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,44 +5056,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E100" s="3">
         <v>18500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-80600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-409300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>366600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-10000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-36100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-39000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>37000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,44 +5162,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E102" s="3">
         <v>28100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-17300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-423100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>397100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>47500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ROCC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>ROCC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,72 +665,73 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,50 +741,56 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>258100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>269200</v>
+      </c>
+      <c r="F8" s="3">
         <v>305100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>314500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>256500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>225200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>141100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>124700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>88600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>67000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>69400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>45500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>91400</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
@@ -793,50 +800,56 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F9" s="3">
         <v>50600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>44300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>40300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>35600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>23900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>21600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>19000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>18300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>18400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>17300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>22100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
@@ -846,50 +859,56 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>201900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>220600</v>
+      </c>
+      <c r="F10" s="3">
         <v>254500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>270200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>216200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>189600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>117200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>103100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>69600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>48700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>51000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>28200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>69300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -899,8 +918,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +945,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -973,8 +1000,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1026,47 +1059,53 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>24200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2700</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>7900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>124900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>237900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>35500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
@@ -1079,50 +1118,56 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>73100</v>
+      </c>
+      <c r="F15" s="3">
         <v>66200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>54300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>50900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>48000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>31000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>28800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>23900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>25800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>37000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>37100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>40700</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1132,8 +1177,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1150,50 +1201,52 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>154200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>132400</v>
+      </c>
+      <c r="F17" s="3">
         <v>126600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>109200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>98800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>126700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>65800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>57400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>59100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>174400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>97900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>70100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1203,50 +1256,56 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>136800</v>
+      </c>
+      <c r="F18" s="3">
         <v>178500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>205300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>157700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>98500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>75300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>67300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>29500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-107400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-230600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-52400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>21300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,8 +1315,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1277,50 +1342,52 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="F20" s="3">
         <v>64300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-44900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-167900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-17200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-21100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-54200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-44400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-22300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-34400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>151100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1330,50 +1397,56 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>214800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>197700</v>
+      </c>
+      <c r="F21" s="3">
         <v>309000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>214700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>40700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>129300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>85200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>41900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-103900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-200400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-49700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>213100</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,50 +1456,56 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F22" s="3">
         <v>13200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>11000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>10700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>11900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>10600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>5300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>5400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>7000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>7500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>8500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>8200</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1436,50 +1515,56 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>114800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>110600</v>
+      </c>
+      <c r="F23" s="3">
         <v>229600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>149300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-20900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>69400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>43600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-20300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-136700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-245000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-95400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>164200</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1489,50 +1574,56 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>2100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1542,8 +1633,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1595,50 +1692,56 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>113800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>109600</v>
+      </c>
+      <c r="F26" s="3">
         <v>227600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>148000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>68300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>43100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-20000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-135500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-243400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-94700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>163100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,50 +1751,56 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F27" s="3">
         <v>106200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>71200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>33400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>17400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>3000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-135500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-243400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-94700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>163100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1701,8 +1810,14 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1754,8 +1869,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1807,8 +1928,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1860,8 +1987,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1913,50 +2046,56 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-64300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>44900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>167900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>17200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>21100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>54200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>44400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>22300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>34400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-151100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1966,50 +2105,56 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F33" s="3">
         <v>106200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>71200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>33400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>17400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>3000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-135500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-243400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-94700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>163100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2164,14 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2072,50 +2223,56 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F35" s="3">
         <v>106200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>71200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>33400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>17400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>3000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-135500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-243400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-94700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>163100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,55 +2282,61 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2183,8 +2346,14 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,8 +2373,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2225,50 +2396,52 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F41" s="3">
         <v>20300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>34500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>23700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>35300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>49700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>11900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>13000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>20500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>21900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>55300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2278,8 +2451,14 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,50 +2510,56 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>139700</v>
+      </c>
+      <c r="F43" s="3">
         <v>147800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>201400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>154200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>118600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>87800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>79600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>66400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>42600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>26000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>42800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>37100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
@@ -2384,50 +2569,56 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>19300</v>
+      </c>
+      <c r="F44" s="3">
         <v>10500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>11100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>13000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>10300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>6000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>7000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>6400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3000</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
@@ -2437,103 +2628,115 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F45" s="3">
         <v>34500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>28800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>24000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>33600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>22900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>11800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>28600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>94000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>56800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>118500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>235200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>194300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200500</v>
+      </c>
+      <c r="F46" s="3">
         <v>213100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>275700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>197600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>186200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>151900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>148100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>110900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>153400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>109800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>186300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>330700</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2543,8 +2746,14 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2581,65 +2790,71 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1810000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1712500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1535800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1419200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1385000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>866800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>835800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>794300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>726000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>838100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1102600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1163500</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -2649,8 +2864,14 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2702,8 +2923,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2755,8 +2982,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2808,50 +3041,56 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F52" s="3">
         <v>9800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>15100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>27900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>5300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>14800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2861,8 +3100,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2914,50 +3159,56 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2086600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2014200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1935400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1826500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1622800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1576600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1419300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>989900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>913100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>907300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>953200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1295700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1508900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2967,8 +3218,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2988,8 +3245,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,50 +3268,52 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>60900</v>
+      </c>
+      <c r="F57" s="3">
         <v>35700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>36200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>35100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>37300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>36300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>31600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>30100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>11300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>12300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>46000</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3062,37 +3323,43 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>4100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>7500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>7500</v>
       </c>
       <c r="J58" s="3">
         <v>7500</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>7500</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -3115,50 +3382,56 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>272600</v>
+      </c>
+      <c r="F59" s="3">
         <v>303900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>407600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>360100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>227400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>179100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>165900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>114100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>136900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>66300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>118200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>162900</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3168,50 +3441,56 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>272100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>333500</v>
+      </c>
+      <c r="F60" s="3">
         <v>339700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>445700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>397100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>268900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>222900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>205000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>151800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>148200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>71200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>130500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>209000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3221,50 +3500,56 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>629500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>604100</v>
+      </c>
+      <c r="F61" s="3">
         <v>603500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>565300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>521800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>601300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>739300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>372000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>363600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>509500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>518900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>553200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>592600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3274,50 +3559,56 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>19600</v>
+      </c>
+      <c r="F62" s="3">
         <v>27600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>41400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>54600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>37000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>30500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>30200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>23600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>36800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>15400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>21400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>23000</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
@@ -3327,8 +3618,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3380,8 +3677,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3433,8 +3736,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3486,50 +3795,56 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1554800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1529800</v>
+      </c>
+      <c r="F66" s="3">
         <v>1489000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1458000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1308800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1253100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1246100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>834900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>762200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>694500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>605400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>705200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>824600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3539,8 +3854,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3560,8 +3881,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3613,8 +3936,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3666,8 +3995,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3719,8 +4054,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3772,50 +4113,56 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>314800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>264300</v>
+      </c>
+      <c r="F72" s="3">
         <v>215500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>110800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>39600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>49600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>16200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>144900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>388300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>483000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3825,8 +4172,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3878,8 +4231,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3931,8 +4290,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3984,50 +4349,56 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>531800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>484400</v>
+      </c>
+      <c r="F76" s="3">
         <v>446300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>368500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>314000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>323500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>173200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>154900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>151000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>212800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>347700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>590500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>684300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4037,8 +4408,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4090,55 +4467,61 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4148,50 +4531,56 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F81" s="3">
         <v>106200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>71200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>33400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>17400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>3000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-135500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-243400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-94700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>163100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,8 +4590,14 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4222,50 +4617,52 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>85300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>73100</v>
+      </c>
+      <c r="F83" s="3">
         <v>66200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>54300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>50900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>48000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>31000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>28800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>23900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>25800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>37000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>37100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>40700</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -4275,8 +4672,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4328,8 +4731,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4381,8 +4790,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4434,8 +4849,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4487,8 +4908,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4540,50 +4967,56 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>160200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>186200</v>
+      </c>
+      <c r="F89" s="3">
         <v>190300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>165000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>133800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>84300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>81500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>90500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>32700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>32100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>60800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>56400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>72500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +5026,14 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4614,50 +5053,52 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-123400</v>
+        <v>-171500</v>
       </c>
       <c r="E91" s="3">
-        <v>64800</v>
+        <v>-181500</v>
       </c>
       <c r="F91" s="3">
+        <v>-210900</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-155500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-71200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-109700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-50900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-60900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-34800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-29600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-26200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-50800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-62000</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -4667,8 +5108,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4720,8 +5167,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4773,50 +5226,56 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-171000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-179900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-155500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-70500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-98700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-50900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-60800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-34800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-29600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-26200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-50800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-61900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -4826,8 +5285,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4847,16 +5312,18 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4900,8 +5367,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4953,8 +5426,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5006,8 +5485,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5059,50 +5544,56 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>18500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-80600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-409300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>366600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>8100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-10000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-36100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-39000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>37000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5112,8 +5603,14 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5165,50 +5662,56 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-14100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>28100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-17300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-423100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>397100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>37800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-33400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>47500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5216,6 +5719,12 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
